--- a/Doc/02使用者匯入.xlsx
+++ b/Doc/02使用者匯入.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vulcan\GitHub\Blazor-Xamarin-Full-Stack-HOL\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4741BB15-FF50-46FC-9F77-03674CFE4434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC315C8E-0187-44BB-8B1B-B6C750BF46EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>帳號</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -153,121 +153,6 @@
     <t>賴○綸</t>
   </si>
   <si>
-    <t>acc01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc02</t>
-  </si>
-  <si>
-    <t>acc03</t>
-  </si>
-  <si>
-    <t>acc04</t>
-  </si>
-  <si>
-    <t>acc05</t>
-  </si>
-  <si>
-    <t>acc06</t>
-  </si>
-  <si>
-    <t>acc07</t>
-  </si>
-  <si>
-    <t>acc08</t>
-  </si>
-  <si>
-    <t>acc09</t>
-  </si>
-  <si>
-    <t>acc10</t>
-  </si>
-  <si>
-    <t>acc11</t>
-  </si>
-  <si>
-    <t>acc12</t>
-  </si>
-  <si>
-    <t>acc13</t>
-  </si>
-  <si>
-    <t>acc14</t>
-  </si>
-  <si>
-    <t>acc15</t>
-  </si>
-  <si>
-    <t>acc16</t>
-  </si>
-  <si>
-    <t>acc17</t>
-  </si>
-  <si>
-    <t>acc18</t>
-  </si>
-  <si>
-    <t>acc19</t>
-  </si>
-  <si>
-    <t>acc20</t>
-  </si>
-  <si>
-    <t>acc21</t>
-  </si>
-  <si>
-    <t>acc22</t>
-  </si>
-  <si>
-    <t>acc23</t>
-  </si>
-  <si>
-    <t>acc24</t>
-  </si>
-  <si>
-    <t>acc25</t>
-  </si>
-  <si>
-    <t>acc26</t>
-  </si>
-  <si>
-    <t>acc27</t>
-  </si>
-  <si>
-    <t>acc28</t>
-  </si>
-  <si>
-    <t>acc29</t>
-  </si>
-  <si>
-    <t>acc30</t>
-  </si>
-  <si>
-    <t>acc31</t>
-  </si>
-  <si>
-    <t>acc32</t>
-  </si>
-  <si>
-    <t>acc33</t>
-  </si>
-  <si>
-    <t>acc34</t>
-  </si>
-  <si>
-    <t>acc35</t>
-  </si>
-  <si>
-    <t>acc36</t>
-  </si>
-  <si>
-    <t>acc37</t>
-  </si>
-  <si>
-    <t>acc38</t>
-  </si>
-  <si>
     <t>使用者角色</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -276,7 +161,131 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>匯入角色</t>
+    <t>user1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>user11</t>
+  </si>
+  <si>
+    <t>user12</t>
+  </si>
+  <si>
+    <t>user13</t>
+  </si>
+  <si>
+    <t>user14</t>
+  </si>
+  <si>
+    <t>user15</t>
+  </si>
+  <si>
+    <t>user16</t>
+  </si>
+  <si>
+    <t>user17</t>
+  </si>
+  <si>
+    <t>user18</t>
+  </si>
+  <si>
+    <t>user19</t>
+  </si>
+  <si>
+    <t>user20</t>
+  </si>
+  <si>
+    <t>user21</t>
+  </si>
+  <si>
+    <t>user22</t>
+  </si>
+  <si>
+    <t>user23</t>
+  </si>
+  <si>
+    <t>user24</t>
+  </si>
+  <si>
+    <t>user25</t>
+  </si>
+  <si>
+    <t>user26</t>
+  </si>
+  <si>
+    <t>user27</t>
+  </si>
+  <si>
+    <t>user28</t>
+  </si>
+  <si>
+    <t>user29</t>
+  </si>
+  <si>
+    <t>user30</t>
+  </si>
+  <si>
+    <t>user31</t>
+  </si>
+  <si>
+    <t>user32</t>
+  </si>
+  <si>
+    <t>user33</t>
+  </si>
+  <si>
+    <t>user34</t>
+  </si>
+  <si>
+    <t>user35</t>
+  </si>
+  <si>
+    <t>user36</t>
+  </si>
+  <si>
+    <t>user37</t>
+  </si>
+  <si>
+    <t>user38</t>
+  </si>
+  <si>
+    <t>開發人員</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>god</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>開發者角色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1244,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E23"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1277,12 +1286,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
@@ -1290,33 +1299,33 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>80</v>
+      <c r="E2" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="2">
-        <v>123</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <v>123</v>
@@ -1325,32 +1334,32 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>123</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
         <v>123</v>
@@ -1359,15 +1368,15 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>123</v>
@@ -1376,32 +1385,32 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2">
         <v>123</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2">
         <v>123</v>
@@ -1410,15 +1419,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2">
         <v>123</v>
@@ -1427,15 +1436,15 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2">
         <v>123</v>
@@ -1444,15 +1453,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2">
         <v>123</v>
@@ -1461,15 +1470,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2">
         <v>123</v>
@@ -1478,15 +1487,15 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2">
         <v>123</v>
@@ -1495,15 +1504,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2">
         <v>123</v>
@@ -1512,15 +1521,15 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2">
         <v>123</v>
@@ -1529,15 +1538,15 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2">
         <v>123</v>
@@ -1546,15 +1555,15 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2">
         <v>123</v>
@@ -1563,15 +1572,15 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2">
         <v>123</v>
@@ -1580,15 +1589,15 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2">
         <v>123</v>
@@ -1597,15 +1606,15 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2">
         <v>123</v>
@@ -1614,15 +1623,15 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2">
         <v>123</v>
@@ -1631,15 +1640,15 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2">
         <v>123</v>
@@ -1648,15 +1657,15 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2">
         <v>123</v>
@@ -1665,15 +1674,15 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2">
         <v>123</v>
@@ -1682,15 +1691,15 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2">
         <v>123</v>
@@ -1699,15 +1708,15 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2">
         <v>123</v>
@@ -1716,15 +1725,15 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2">
         <v>123</v>
@@ -1733,15 +1742,15 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2">
         <v>123</v>
@@ -1750,15 +1759,15 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2">
         <v>123</v>
@@ -1767,15 +1776,15 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2">
         <v>123</v>
@@ -1784,15 +1793,15 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2">
         <v>123</v>
@@ -1801,15 +1810,15 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2">
         <v>123</v>
@@ -1818,15 +1827,15 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2">
         <v>123</v>
@@ -1835,15 +1844,15 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2">
         <v>123</v>
@@ -1852,15 +1861,15 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2">
         <v>123</v>
@@ -1869,15 +1878,15 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2">
         <v>123</v>
@@ -1886,15 +1895,15 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2">
         <v>123</v>
@@ -1903,24 +1912,41 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2">
+        <v>123</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="2">
-        <v>123</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>80</v>
+      <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2">
+        <v>123</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/02使用者匯入.xlsx
+++ b/Doc/02使用者匯入.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vulcan\GitHub\Blazor-Xamarin-Full-Stack-HOL\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC315C8E-0187-44BB-8B1B-B6C750BF46EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB76AA1-0D56-48ED-864C-BBAB9E4BE86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>帳號</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -171,9 +171,6 @@
     <t>user3</t>
   </si>
   <si>
-    <t>user4</t>
-  </si>
-  <si>
     <t>user5</t>
   </si>
   <si>
@@ -285,6 +282,18 @@
   </si>
   <si>
     <t>開發者角色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統管理者</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>user4</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -889,14 +898,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1253,67 +1262,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="7.90625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="11.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="7.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="2">
-        <v>123</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2">
-        <v>123</v>
-      </c>
-      <c r="D3" s="2">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1321,631 +1330,648 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="2">
-        <v>123</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="2">
-        <v>123</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="2">
-        <v>123</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C8" s="1">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2">
-        <v>123</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C9" s="1">
+        <v>123</v>
+      </c>
+      <c r="D9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="2">
-        <v>123</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="1">
+        <v>123</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2">
-        <v>123</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="1">
+        <v>123</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="2">
-        <v>123</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="1">
+        <v>123</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="2">
-        <v>123</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="1">
+        <v>123</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="2">
-        <v>123</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="1">
+        <v>123</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="2">
-        <v>123</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="1">
+        <v>123</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="2">
-        <v>123</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="1">
+        <v>123</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="2">
-        <v>123</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="1">
+        <v>123</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="2">
-        <v>123</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="1">
+        <v>123</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="2">
-        <v>123</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="1">
+        <v>123</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="2">
-        <v>123</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="1">
+        <v>123</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="2">
-        <v>123</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="1">
+        <v>123</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="2">
-        <v>123</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="C22" s="1">
+        <v>123</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="2">
-        <v>123</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="1">
+        <v>123</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="2">
-        <v>123</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C24" s="1">
+        <v>123</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="2">
-        <v>123</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C25" s="1">
+        <v>123</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="2">
-        <v>123</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C26" s="1">
+        <v>123</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="2">
-        <v>123</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="C27" s="1">
+        <v>123</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="2">
-        <v>123</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C28" s="1">
+        <v>123</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="2">
-        <v>123</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="C29" s="1">
+        <v>123</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="2">
-        <v>123</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="C30" s="1">
+        <v>123</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="2">
-        <v>123</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
+      <c r="C31" s="1">
+        <v>123</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1">
+        <v>123</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="1">
+        <v>123</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1">
+        <v>123</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="2">
-        <v>123</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="2">
-        <v>123</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="2">
-        <v>123</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="2">
-        <v>123</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="C35" s="1">
+        <v>123</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="2">
-        <v>123</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="C36" s="1">
+        <v>123</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="2">
-        <v>123</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="C37" s="1">
+        <v>123</v>
+      </c>
+      <c r="D37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="2">
-        <v>123</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C38" s="1">
+        <v>123</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="2">
-        <v>123</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="C39" s="1">
+        <v>123</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="2">
-        <v>123</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="C40" s="1">
+        <v>123</v>
+      </c>
+      <c r="D40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2">
-        <v>123</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="2">
-        <v>123</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="C41" s="1">
+        <v>123</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>42</v>
       </c>
     </row>
